--- a/data/trans_dic/P13_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P13_R-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01329601637936153</v>
+        <v>0.0128179980053502</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03133299652829762</v>
+        <v>0.03226662656315316</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03361647733199449</v>
+        <v>0.03414503382388748</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.004298536629486249</v>
+        <v>0.004255994012428028</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01607263047583624</v>
+        <v>0.01579590237335041</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.138957648525711</v>
+        <v>0.1372216533562054</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06544248520625102</v>
+        <v>0.06733526736308672</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.003231835648368845</v>
+        <v>0.004208625571992508</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01957961987273154</v>
+        <v>0.01764196392750803</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09154674746478798</v>
+        <v>0.09126022901871365</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0560357818629528</v>
+        <v>0.05645782984597043</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.00610126796792751</v>
+        <v>0.005755082382833198</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05474781515766486</v>
+        <v>0.05513370964996166</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.08018766886491399</v>
+        <v>0.08356084652418072</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.09284170349626385</v>
+        <v>0.08799043374856975</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03049542536852231</v>
+        <v>0.03235402028529745</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06408280578322104</v>
+        <v>0.06253551586793578</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2331942317868254</v>
+        <v>0.2401753199066821</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1443548390369422</v>
+        <v>0.140170465087196</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.01999192883717317</v>
+        <v>0.02077627217645929</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04947703880500722</v>
+        <v>0.04776911879765922</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.146989168706353</v>
+        <v>0.1473106123376933</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1062802913595859</v>
+        <v>0.1019574126568509</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02129216252194143</v>
+        <v>0.02124622949040608</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03124144841699977</v>
+        <v>0.02809812426173538</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02894136411669574</v>
+        <v>0.02820199436202601</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0121386055100213</v>
+        <v>0.01192762801586494</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02464839802435645</v>
+        <v>0.02581204717530362</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04662773866799775</v>
+        <v>0.04518381120368847</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08296207875933635</v>
+        <v>0.08257343968035037</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02116630890517813</v>
+        <v>0.02298914206419607</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05582177972283917</v>
+        <v>0.05746534159554537</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0428939774377789</v>
+        <v>0.04261301662257351</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06216524980703407</v>
+        <v>0.06005282914385648</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02086882280593528</v>
+        <v>0.02015414939550777</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.0459780014149236</v>
+        <v>0.04465879579386717</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.0710018040033894</v>
+        <v>0.0713469813918223</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.0713694831356909</v>
+        <v>0.06916441660629424</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04118004139274577</v>
+        <v>0.04145847447486205</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06628504229167696</v>
+        <v>0.06263124585765716</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09088875338449215</v>
+        <v>0.09244493270925459</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1392780227650279</v>
+        <v>0.1379887547389244</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05790208089658239</v>
+        <v>0.05686156864345304</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.09575705733659372</v>
+        <v>0.09632314354108416</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.07211857556492492</v>
+        <v>0.07288080862691075</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.09779208541239304</v>
+        <v>0.09715550278004303</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.04394482114647815</v>
+        <v>0.0418711121079714</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07530679308655</v>
+        <v>0.07352298627797654</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.0102342572066168</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.09206945626632032</v>
+        <v>0.09206945626632033</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.002966274212604944</v>
+        <v>0.002974937474387594</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01200886722001122</v>
+        <v>0.012500591112891</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.004908881090271129</v>
+        <v>0.005057564438637017</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.05152425961039753</v>
+        <v>0.05081374592224776</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.009704841540571479</v>
+        <v>0.009747253558870073</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04052686420283475</v>
+        <v>0.04122598982916872</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.08585533884140173</v>
+        <v>0.08436599952079393</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.008198957942406923</v>
+        <v>0.008730263828878105</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.03197646451603119</v>
+        <v>0.03078049940336773</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.004201309944557184</v>
+        <v>0.004472568957512846</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07637930036263017</v>
+        <v>0.07574609915810147</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03229042637308821</v>
+        <v>0.03348177216165629</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05244640461612485</v>
+        <v>0.05421979197113411</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03361709955625061</v>
+        <v>0.03158062597293186</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1028388143939086</v>
+        <v>0.1029970959113776</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04149842143123377</v>
+        <v>0.04165781792223902</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09468499696695133</v>
+        <v>0.09545286829007084</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02194150424009577</v>
+        <v>0.02234399629423068</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1361306401747376</v>
+        <v>0.133296502991735</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02933891334934078</v>
+        <v>0.02949118924712666</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06400454328266064</v>
+        <v>0.06574365314125569</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.02078573971538733</v>
+        <v>0.02060612784235642</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1141238510421194</v>
+        <v>0.1112058042548446</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.07162648761608874</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.06802906030969287</v>
+        <v>0.06802906030969286</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.01880114364681344</v>
@@ -1105,7 +1105,7 @@
         <v>0.05863501250260404</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.06234228564565772</v>
+        <v>0.06234228564565771</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.003132092397421474</v>
+        <v>0.003078799320610286</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01173226183991215</v>
+        <v>0.01203489007691828</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02456678592744662</v>
+        <v>0.02647774042534911</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03486810020322107</v>
+        <v>0.03499791983870441</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01087116177652328</v>
+        <v>0.01133102612641971</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06516668928790018</v>
+        <v>0.06369533566192613</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0481559153447703</v>
+        <v>0.04971461388977814</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05003740062024863</v>
+        <v>0.04981598946939628</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01060914224963555</v>
+        <v>0.01037556097504596</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.04258546297542836</v>
+        <v>0.04275078090016746</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.04282622770395055</v>
+        <v>0.04323681525609669</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04819979466369002</v>
+        <v>0.04781883368474278</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0315117168240372</v>
+        <v>0.03266782264735925</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04672632602501338</v>
+        <v>0.04300209337878353</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07054282372641001</v>
+        <v>0.0689649875395959</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08915992472388719</v>
+        <v>0.09282366993015999</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04306078797625879</v>
+        <v>0.04524685339413186</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1221350425378881</v>
+        <v>0.1238397985489644</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.0971978427039968</v>
+        <v>0.1022414961847459</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08685385056989582</v>
+        <v>0.08966204571422781</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.03162184202129708</v>
+        <v>0.03131893896175136</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07713789904431147</v>
+        <v>0.07790903360376782</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07931189160072689</v>
+        <v>0.07905955833572519</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08026118025989915</v>
+        <v>0.07926251439242832</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.03765521360496013</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.03930259648532471</v>
+        <v>0.0393025964853247</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.06573533830752942</v>
@@ -1229,7 +1229,7 @@
         <v>0.07191004841968286</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.04746731285605021</v>
+        <v>0.04746731285605019</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.04637734741551929</v>
@@ -1241,7 +1241,7 @@
         <v>0.05504135256639885</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.04358431338117671</v>
+        <v>0.0435843133811767</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.008962866866568034</v>
+        <v>0.009219810488166969</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01220238943863932</v>
+        <v>0.01048451636562062</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.01485186990811093</v>
+        <v>0.01861477180530982</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0232084729866716</v>
+        <v>0.02308608748092061</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0380446157571015</v>
+        <v>0.03970786605764508</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07435999116592613</v>
+        <v>0.07495726009443704</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04193403498407618</v>
+        <v>0.04023581100812284</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.03119494651772423</v>
+        <v>0.03235797431162225</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02836596311798419</v>
+        <v>0.028454820731261</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.04937950080944239</v>
+        <v>0.04932969492922325</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03434978319592585</v>
+        <v>0.03659127023456735</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.03192140809904263</v>
+        <v>0.03245705185243875</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05311316375803807</v>
+        <v>0.05384872223683126</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.06443845810295101</v>
+        <v>0.06502357905943201</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.06670471580508656</v>
+        <v>0.07427002230430717</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06233342300496753</v>
+        <v>0.06378054873241311</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1069360094752761</v>
+        <v>0.1059495855961579</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1653332249445952</v>
+        <v>0.1603821629845467</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1102136991648162</v>
+        <v>0.1118893575370081</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.06928431990539884</v>
+        <v>0.06979499643942529</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.06982606451315015</v>
+        <v>0.06891208931326193</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.09853702568979555</v>
+        <v>0.1011885468635265</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07958417707852297</v>
+        <v>0.08043286680375406</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.06080853688583334</v>
+        <v>0.0601599215336265</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.04077302117168997</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.05312179732874429</v>
+        <v>0.0531217973287443</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.01913528618324361</v>
@@ -1365,7 +1365,7 @@
         <v>0.07916874723811532</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.08759216425048755</v>
+        <v>0.08759216425048751</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.009695448627654965</v>
@@ -1389,37 +1389,37 @@
       </c>
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="n">
-        <v>0.02290246488995004</v>
+        <v>0.0260565608511352</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.02166148164971446</v>
+        <v>0.0212965202832274</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.03524505453059266</v>
+        <v>0.03458384033384111</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.007395110407026991</v>
+        <v>0.00748433458486739</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03752777011143924</v>
+        <v>0.03735247145935745</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.04872494684824844</v>
+        <v>0.04634215756946389</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.06612303220454924</v>
+        <v>0.06671384746705476</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.003835488703272506</v>
+        <v>0.003624339653895819</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.03736098492349402</v>
+        <v>0.03732408097939034</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.04188916620719303</v>
+        <v>0.04091166567399426</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.056181061062453</v>
+        <v>0.05560981128035674</v>
       </c>
     </row>
     <row r="21">
@@ -1431,37 +1431,37 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.07344644332294889</v>
+        <v>0.07429802176059322</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.07029960566542436</v>
+        <v>0.0695072115039157</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.07513080608230119</v>
+        <v>0.07559872875423099</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04212229485809848</v>
+        <v>0.0425580509378163</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.09969190262146951</v>
+        <v>0.09695049727448826</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1209944071800818</v>
+        <v>0.1182106627562652</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1135211198407646</v>
+        <v>0.1116951647225608</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02168925323620696</v>
+        <v>0.02145061006571199</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.0763762196960773</v>
+        <v>0.07613954511438112</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.08530921945231165</v>
+        <v>0.08478856803884628</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.08645143796710136</v>
+        <v>0.0869955802957614</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.04136994026844486</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.0714566884254652</v>
+        <v>0.07145668842546521</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.06471168305060837</v>
@@ -1509,7 +1509,7 @@
         <v>0.05804334648076266</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.08303966089398751</v>
+        <v>0.08303966089398754</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.03066214475594152</v>
+        <v>0.03025619534614953</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01232937252000185</v>
+        <v>0.01217107171121296</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02723037335936426</v>
+        <v>0.0281115949819828</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05153470485611353</v>
+        <v>0.05113727145710432</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04554934136892074</v>
+        <v>0.04538048561134118</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.03819609234292864</v>
+        <v>0.03827876964891423</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.05374609428966833</v>
+        <v>0.05536190170887226</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.07695249005022749</v>
+        <v>0.07571352317183512</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.04372308479263712</v>
+        <v>0.04332988344513896</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.0276399082032663</v>
+        <v>0.02809052456536506</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.04506189170475203</v>
+        <v>0.04515968283532086</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.07021064706927287</v>
+        <v>0.07100896103890543</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06691964417050321</v>
+        <v>0.06526091925692218</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03744040760936495</v>
+        <v>0.03787105638722536</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06081015916116148</v>
+        <v>0.06072231202849176</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.09584095207717179</v>
+        <v>0.09436401679260735</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.08685396265304514</v>
+        <v>0.08680857108450646</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.07568863425006478</v>
+        <v>0.07457981015021789</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.09704929163743067</v>
+        <v>0.0973824673870646</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1123743743331865</v>
+        <v>0.1126993080693707</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.06894738066712523</v>
+        <v>0.06879157126468294</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.05050633062433864</v>
+        <v>0.05003354835480831</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.07317146881040884</v>
+        <v>0.07280920460928766</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.09782897299252137</v>
+        <v>0.09921419416293373</v>
       </c>
     </row>
     <row r="25">
@@ -1633,7 +1633,7 @@
         <v>0.03621430944623251</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.07331848359456805</v>
+        <v>0.07331848359456807</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.05141356480748253</v>
@@ -1645,7 +1645,7 @@
         <v>0.03247594642622349</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.06213051040076702</v>
+        <v>0.06213051040076704</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.03108785279028561</v>
+        <v>0.03071357484334362</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.06840302937131877</v>
+        <v>0.06964186871892035</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.01860267504071631</v>
+        <v>0.01776243236332337</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03490991694160012</v>
+        <v>0.03767507645625335</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.04251541553681052</v>
+        <v>0.04280286125757088</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.08140219686905498</v>
+        <v>0.08207598517348312</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02297718465053096</v>
+        <v>0.02430724447833001</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.05993193844082506</v>
+        <v>0.058758178540061</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.0409624287519587</v>
+        <v>0.04073639501072684</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.08265301489342979</v>
+        <v>0.08222812820871959</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.02428325994519715</v>
+        <v>0.02496837182885264</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.05245108967105465</v>
+        <v>0.05196567293592529</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06101797101538971</v>
+        <v>0.05987533278082326</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1131733229381902</v>
+        <v>0.1116174980479428</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04246453815915058</v>
+        <v>0.04193651538375836</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.06492229430618343</v>
+        <v>0.06786512234409818</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.07664687164049852</v>
+        <v>0.07643008215851992</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.1241884356547815</v>
+        <v>0.1232234594708982</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.0524128621444202</v>
+        <v>0.05274415072495297</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.08984577277370537</v>
+        <v>0.08884778742715757</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.06369998400167103</v>
+        <v>0.06313482705214948</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.1134369055560636</v>
+        <v>0.1138965558202345</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.04255255939303363</v>
+        <v>0.04328035144398317</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.07258070570644033</v>
+        <v>0.07273133431866489</v>
       </c>
     </row>
     <row r="28">
@@ -1757,7 +1757,7 @@
         <v>0.03465013591691826</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.05226604053810154</v>
+        <v>0.05226604053810156</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.04850047052032394</v>
@@ -1769,7 +1769,7 @@
         <v>0.0552846470732063</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.07456401324854876</v>
+        <v>0.07456401324854875</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.04031159862993554</v>
@@ -1781,7 +1781,7 @@
         <v>0.04518485086007707</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.06372411909316227</v>
+        <v>0.06372411909316228</v>
       </c>
     </row>
     <row r="29">
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02619086527189032</v>
+        <v>0.02573628406722594</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.03936657586934775</v>
+        <v>0.03920802502659371</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02879824372799816</v>
+        <v>0.02835955402018472</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.04461243528177447</v>
+        <v>0.04467593241360743</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.04195459116959203</v>
+        <v>0.0424346079365164</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.08385643015087663</v>
+        <v>0.08363102939344508</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.04726268506121068</v>
+        <v>0.04755147765662992</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.06835394631472304</v>
+        <v>0.06807368604966044</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.03553359574388249</v>
+        <v>0.03519206647901196</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.06423428006184508</v>
+        <v>0.06404127612497502</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.04007295547795537</v>
+        <v>0.04023335958409779</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.05864573854842128</v>
+        <v>0.05872153202197104</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.0383658583692621</v>
+        <v>0.03878117757131101</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.05464296265538473</v>
+        <v>0.05415908791128235</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.04105710951129424</v>
+        <v>0.04077339871287977</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.0599363896528598</v>
+        <v>0.05946872845355478</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.05698838388880054</v>
+        <v>0.05752694927323557</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.1042838633596499</v>
+        <v>0.1038134439550011</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.06419627403786637</v>
+        <v>0.06432513619196539</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.0816093578715457</v>
+        <v>0.08166893341517864</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.04551139818993366</v>
+        <v>0.0456959943105485</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.07751756224071726</v>
+        <v>0.07694262922515806</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.05002183748581523</v>
+        <v>0.05040070714477934</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.06918739231743393</v>
+        <v>0.0689718720151057</v>
       </c>
     </row>
     <row r="31">
@@ -2144,40 +2144,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3630</v>
+        <v>3499</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9235</v>
+        <v>9510</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9875</v>
+        <v>10030</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1371</v>
+        <v>1357</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>4192</v>
+        <v>4120</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>39915</v>
+        <v>39416</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>18893</v>
+        <v>19440</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1021</v>
+        <v>1330</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>10453</v>
+        <v>9418</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>53279</v>
+        <v>53112</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>32639</v>
+        <v>32885</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>3874</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="7">
@@ -2188,40 +2188,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14947</v>
+        <v>15052</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>23634</v>
+        <v>24629</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27273</v>
+        <v>25848</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9723</v>
+        <v>10316</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>16715</v>
+        <v>16312</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>66984</v>
+        <v>68989</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>41676</v>
+        <v>40468</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>6319</v>
+        <v>6567</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>26413</v>
+        <v>25501</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>85545</v>
+        <v>85732</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>61904</v>
+        <v>59387</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>13519</v>
+        <v>13489</v>
       </c>
     </row>
     <row r="8">
@@ -2324,40 +2324,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>15404</v>
+        <v>13854</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>14603</v>
+        <v>14230</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6101</v>
+        <v>5995</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>13055</v>
+        <v>13672</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>23498</v>
+        <v>22770</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>43453</v>
+        <v>43249</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>11072</v>
+        <v>12025</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>30506</v>
+        <v>31404</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>42766</v>
+        <v>42486</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>63927</v>
+        <v>61755</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>21404</v>
+        <v>20671</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>49479</v>
+        <v>48060</v>
       </c>
     </row>
     <row r="11">
@@ -2368,40 +2368,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>35009</v>
+        <v>35179</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>36012</v>
+        <v>34899</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20696</v>
+        <v>20836</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>35108</v>
+        <v>33173</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>45803</v>
+        <v>46588</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>72949</v>
+        <v>72274</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>30288</v>
+        <v>29743</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>52331</v>
+        <v>52640</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>71904</v>
+        <v>72664</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>100564</v>
+        <v>99909</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>45072</v>
+        <v>42945</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>81042</v>
+        <v>79122</v>
       </c>
     </row>
     <row r="12">
@@ -2504,40 +2504,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3891</v>
+        <v>4051</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1564</v>
+        <v>1611</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>16233</v>
+        <v>16009</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3255</v>
+        <v>3269</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>13820</v>
+        <v>14059</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>30597</v>
+        <v>30066</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>5364</v>
+        <v>5712</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>21266</v>
+        <v>20471</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2748</v>
+        <v>2925</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>51284</v>
+        <v>50859</v>
       </c>
     </row>
     <row r="15">
@@ -2548,40 +2548,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10296</v>
+        <v>10676</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>16995</v>
+        <v>17570</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>10709</v>
+        <v>10060</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>32400</v>
+        <v>32450</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13919</v>
+        <v>13973</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>32289</v>
+        <v>32551</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>7361</v>
+        <v>7496</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>48514</v>
+        <v>47504</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>19195</v>
+        <v>19295</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>42567</v>
+        <v>43724</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>13594</v>
+        <v>13477</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>76627</v>
+        <v>74668</v>
       </c>
     </row>
     <row r="16">
@@ -2684,40 +2684,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1123</v>
+        <v>1104</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4376</v>
+        <v>4489</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9065</v>
+        <v>9770</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>13011</v>
+        <v>13059</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>4038</v>
+        <v>4209</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>25219</v>
+        <v>24650</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>18650</v>
+        <v>19254</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>20929</v>
+        <v>20837</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>7746</v>
+        <v>7575</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>32366</v>
+        <v>32491</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>32388</v>
+        <v>32699</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>38146</v>
+        <v>37845</v>
       </c>
     </row>
     <row r="19">
@@ -2728,40 +2728,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11302</v>
+        <v>11717</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>17430</v>
+        <v>16041</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>26030</v>
+        <v>25447</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>33270</v>
+        <v>34637</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>15995</v>
+        <v>16807</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>47266</v>
+        <v>47926</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>37643</v>
+        <v>39596</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>36328</v>
+        <v>37503</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>23088</v>
+        <v>22867</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>58626</v>
+        <v>59212</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>59982</v>
+        <v>59791</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>63520</v>
+        <v>62730</v>
       </c>
     </row>
     <row r="20">
@@ -2864,40 +2864,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1822</v>
+        <v>1874</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2594</v>
+        <v>2229</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3137</v>
+        <v>3932</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4773</v>
+        <v>4748</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>7901</v>
+        <v>8246</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>16329</v>
+        <v>16460</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>9129</v>
+        <v>8759</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>7074</v>
+        <v>7338</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>11658</v>
+        <v>11694</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>21342</v>
+        <v>21321</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>14733</v>
+        <v>15695</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>13804</v>
+        <v>14036</v>
       </c>
     </row>
     <row r="23">
@@ -2908,40 +2908,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>10798</v>
+        <v>10948</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>13701</v>
+        <v>13825</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>14089</v>
+        <v>15687</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>12820</v>
+        <v>13117</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>22207</v>
+        <v>22002</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>36306</v>
+        <v>35218</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>23994</v>
+        <v>24358</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>15713</v>
+        <v>15828</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>28697</v>
+        <v>28321</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>42589</v>
+        <v>43735</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>34135</v>
+        <v>34499</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>26297</v>
+        <v>26016</v>
       </c>
     </row>
     <row r="24">
@@ -3045,37 +3045,37 @@
       </c>
       <c r="C26" s="6" t="inlineStr"/>
       <c r="D26" s="6" t="n">
-        <v>6275</v>
+        <v>7139</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5700</v>
+        <v>5604</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>9541</v>
+        <v>9362</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>2057</v>
+        <v>2082</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>10509</v>
+        <v>10460</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>13308</v>
+        <v>12657</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>17440</v>
+        <v>17596</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>2106</v>
+        <v>1990</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>20698</v>
+        <v>20678</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>22463</v>
+        <v>21938</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>30026</v>
+        <v>29721</v>
       </c>
     </row>
     <row r="27">
@@ -3087,37 +3087,37 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>20123</v>
+        <v>20356</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>18497</v>
+        <v>18289</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>20338</v>
+        <v>20465</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>11716</v>
+        <v>11837</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>27917</v>
+        <v>27149</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>33045</v>
+        <v>32285</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>29941</v>
+        <v>29460</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>11906</v>
+        <v>11775</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>42313</v>
+        <v>42182</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>45746</v>
+        <v>45467</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>46205</v>
+        <v>46495</v>
       </c>
     </row>
     <row r="28">
@@ -3220,40 +3220,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>18858</v>
+        <v>18608</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>8172</v>
+        <v>8067</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>17878</v>
+        <v>18457</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>37033</v>
+        <v>36747</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>29070</v>
+        <v>28963</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>26461</v>
+        <v>26518</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>37086</v>
+        <v>38201</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>59412</v>
+        <v>58455</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>54796</v>
+        <v>54303</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>37467</v>
+        <v>38078</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>60679</v>
+        <v>60811</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>104660</v>
+        <v>105850</v>
       </c>
     </row>
     <row r="31">
@@ -3264,40 +3264,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>41157</v>
+        <v>40137</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>24815</v>
+        <v>25100</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>39925</v>
+        <v>39868</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>68872</v>
+        <v>67810</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>55432</v>
+        <v>55403</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>52434</v>
+        <v>51666</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>66966</v>
+        <v>67196</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>86759</v>
+        <v>87010</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>86408</v>
+        <v>86213</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>68464</v>
+        <v>67823</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>98531</v>
+        <v>98043</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>145830</v>
+        <v>147895</v>
       </c>
     </row>
     <row r="32">
@@ -3400,40 +3400,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>23123</v>
+        <v>22845</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>53222</v>
+        <v>54186</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>14484</v>
+        <v>13830</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>27837</v>
+        <v>30042</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>33311</v>
+        <v>33537</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>67063</v>
+        <v>67619</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>18936</v>
+        <v>20032</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>49777</v>
+        <v>48802</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>62562</v>
+        <v>62217</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>132404</v>
+        <v>131723</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>38919</v>
+        <v>40017</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>85388</v>
+        <v>84598</v>
       </c>
     </row>
     <row r="35">
@@ -3444,40 +3444,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>45385</v>
+        <v>44535</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>88057</v>
+        <v>86846</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>33062</v>
+        <v>32651</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>51769</v>
+        <v>54116</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>60054</v>
+        <v>59884</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>102313</v>
+        <v>101518</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>43195</v>
+        <v>43468</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>74621</v>
+        <v>73793</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>97289</v>
+        <v>96426</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>181717</v>
+        <v>182453</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>68200</v>
+        <v>69366</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>118158</v>
+        <v>118403</v>
       </c>
     </row>
     <row r="36">
@@ -3580,40 +3580,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>85815</v>
+        <v>84326</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>134785</v>
+        <v>134242</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>97723</v>
+        <v>96235</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>157441</v>
+        <v>157665</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>141773</v>
+        <v>143395</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>298131</v>
+        <v>297330</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>167286</v>
+        <v>168309</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>254984</v>
+        <v>253939</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>236502</v>
+        <v>234229</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>448297</v>
+        <v>446950</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>277821</v>
+        <v>278933</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>425735</v>
+        <v>426285</v>
       </c>
     </row>
     <row r="39">
@@ -3624,40 +3624,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>125707</v>
+        <v>127068</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>187089</v>
+        <v>185432</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>139322</v>
+        <v>138360</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>211521</v>
+        <v>209870</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>192575</v>
+        <v>194395</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>370756</v>
+        <v>369083</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>227223</v>
+        <v>227679</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>304431</v>
+        <v>304654</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>302912</v>
+        <v>304141</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>541002</v>
+        <v>536990</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>346795</v>
+        <v>349422</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>502262</v>
+        <v>500697</v>
       </c>
     </row>
     <row r="40">
